--- a/nom_fichiers.xlsx
+++ b/nom_fichiers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\PRI\enregistrements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843DD38C-3227-4ED5-8F5F-E89545FA51AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE0B9A4-9A5F-43C2-B7C7-FDA0C3A44396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="776">
   <si>
     <t>test_FxFy_perlite_1</t>
   </si>
@@ -1144,6 +1144,1215 @@
   </si>
   <si>
     <t>incertitude_WEL_30</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_1</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_2</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_3</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_4</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_5</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_6</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_7</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_8</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_9</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_10</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_11</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_12</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_13</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_14</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_15</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_16</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_17</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_18</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_19</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_20</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_21</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_22</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_23</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_24</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_25</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_26</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_27</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_28</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_29</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_30</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_31</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_32</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_33</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_34</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_35</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_36</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_37</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_38</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_39</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_40</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_41</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_42</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite_rug_43</t>
+  </si>
+  <si>
+    <t>benchmarks_martensitev2_1</t>
+  </si>
+  <si>
+    <t>benchmarks_martensitev2_2</t>
+  </si>
+  <si>
+    <t>benchmarks_martensitev2_3</t>
+  </si>
+  <si>
+    <t>benchmarks_martensitev2_4</t>
+  </si>
+  <si>
+    <t>benchmarks_martensitev2_5</t>
+  </si>
+  <si>
+    <t>benchmarks_martensitev2_6</t>
+  </si>
+  <si>
+    <t>benchmarks_martensitev2_7</t>
+  </si>
+  <si>
+    <t>benchmarks_martensitev2_8</t>
+  </si>
+  <si>
+    <t>benchmarks_martensitev2_9</t>
+  </si>
+  <si>
+    <t>benchmarks_martensitev2_10</t>
+  </si>
+  <si>
+    <t>benchmarks_martensitev2_11</t>
+  </si>
+  <si>
+    <t>benchmarks_martensitev2_12</t>
+  </si>
+  <si>
+    <t>benchmarks_martensitev2_13</t>
+  </si>
+  <si>
+    <t>benchmarks_martensitev2_14</t>
+  </si>
+  <si>
+    <t>benchmarks_martensitev2_15</t>
+  </si>
+  <si>
+    <t>benchmarks_martensitev2_16</t>
+  </si>
+  <si>
+    <t>benchmarks_martensitev2_17</t>
+  </si>
+  <si>
+    <t>benchmarks_martensitev2_18</t>
+  </si>
+  <si>
+    <t>benchmarks_martensitev2_19</t>
+  </si>
+  <si>
+    <t>benchmarks_martensitev2_20</t>
+  </si>
+  <si>
+    <t>benchmarks_martensitev2_21</t>
+  </si>
+  <si>
+    <t>benchmarks_martensitev2_22</t>
+  </si>
+  <si>
+    <t>benchmarks_martensitev2_23</t>
+  </si>
+  <si>
+    <t>benchmarks_martensitev2_24</t>
+  </si>
+  <si>
+    <t>benchmarks_martensitev2_25</t>
+  </si>
+  <si>
+    <t>benchmarks_martensitev2_26</t>
+  </si>
+  <si>
+    <t>benchmarks_martensitev2_27</t>
+  </si>
+  <si>
+    <t>benchmarks_martensitev2_28</t>
+  </si>
+  <si>
+    <t>benchmarks_martensitev2_29</t>
+  </si>
+  <si>
+    <t>benchmarks_martensitev2_30</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I_1</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6I_6</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I_2</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I_3</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I_4</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I_5</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I_6</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I_7</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I_8</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I_9</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I_10</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I_11</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I_12</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I_13</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I_14</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I_15</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I_16</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I_17</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I_18</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I_19</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I_20</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I_21</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I_22</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I_23</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I_24</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I_25</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I_26</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I_27</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I_28</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I_29</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I_30</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II_1</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II_2</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II_3</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II_4</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II_5</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II_6</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II_7</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II_8</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II_9</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II_10</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II_11</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II_12</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II_13</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II_14</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II_15</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II_16</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II_17</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II_18</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II_19</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II_20</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II_21</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II_22</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II_23</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II_24</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II_25</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II_26</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II_27</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II_28</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II_29</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II_30</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III_1</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III_2</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III_3</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III_4</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III_5</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III_6</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III_7</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III_8</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III_9</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III_10</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III_11</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III_12</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III_13</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III_14</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III_15</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III_16</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III_17</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III_18</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III_19</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III_20</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III_21</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III_22</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III_23</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III_24</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III_25</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III_26</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III_27</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III_28</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III_29</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III_30</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV_1</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV_2</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV_3</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV_4</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV_5</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV_6</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV_7</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV_8</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV_9</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV_10</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV_11</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV_12</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV_13</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV_14</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV_15</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV_16</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV_17</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV_18</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV_19</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV_20</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV_21</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV_22</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV_23</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV_24</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV_25</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV_26</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV_27</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV_28</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV_29</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV_30</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6I_1</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6I_2</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6I_3</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6I_4</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6I_5</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6I_7</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6I_8</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6I_9</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6I_10</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6I_11</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6I_12</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6I_13</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6I_14</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6I_15</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6I_16</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6I_17</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6I_18</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6I_19</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6I_20</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6I_21</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6I_22</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6I_23</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6I_24</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6I_25</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6I_26</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6I_27</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6I_28</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6I_29</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6I_30</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6II_1</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6II_2</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6II_3</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6II_4</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6II_5</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6II_6</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6II_7</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6II_8</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6II_9</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6II_10</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6II_11</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6II_12</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6II_13</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6II_14</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6II_15</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6II_16</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6II_17</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6II_18</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6II_19</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6II_20</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6II_21</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6II_22</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6II_23</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6II_24</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6II_25</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6II_26</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6II_27</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6II_28</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6II_29</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6II_30</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6III_1</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6III_2</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6III_3</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6III_4</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6III_5</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6III_6</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6III_7</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6III_8</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6III_9</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6III_10</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6III_11</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6III_12</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6III_13</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6III_14</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6III_15</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6III_16</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6III_17</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6III_18</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6III_19</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6III_20</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6III_21</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6III_22</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6III_23</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6III_24</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6III_25</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6III_26</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6III_27</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6III_28</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6III_29</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6III_30</t>
+  </si>
+  <si>
+    <t>benchmarks_perlitev2_1</t>
+  </si>
+  <si>
+    <t>benchmarks_perlitev2_2</t>
+  </si>
+  <si>
+    <t>benchmarks_perlitev2_3</t>
+  </si>
+  <si>
+    <t>benchmarks_perlitev2_4</t>
+  </si>
+  <si>
+    <t>benchmarks_perlitev2_5</t>
+  </si>
+  <si>
+    <t>benchmarks_perlitev2_6</t>
+  </si>
+  <si>
+    <t>benchmarks_perlitev2_7</t>
+  </si>
+  <si>
+    <t>benchmarks_perlitev2_8</t>
+  </si>
+  <si>
+    <t>benchmarks_perlitev2_9</t>
+  </si>
+  <si>
+    <t>benchmarks_perlitev2_10</t>
+  </si>
+  <si>
+    <t>benchmarks_perlitev2_11</t>
+  </si>
+  <si>
+    <t>benchmarks_perlitev2_12</t>
+  </si>
+  <si>
+    <t>benchmarks_perlitev2_13</t>
+  </si>
+  <si>
+    <t>benchmarks_perlitev2_14</t>
+  </si>
+  <si>
+    <t>benchmarks_perlitev2_15</t>
+  </si>
+  <si>
+    <t>benchmarks_perlitev2_16</t>
+  </si>
+  <si>
+    <t>benchmarks_perlitev2_17</t>
+  </si>
+  <si>
+    <t>benchmarks_perlitev2_18</t>
+  </si>
+  <si>
+    <t>benchmarks_perlitev2_19</t>
+  </si>
+  <si>
+    <t>benchmarks_perlitev2_20</t>
+  </si>
+  <si>
+    <t>benchmarks_perlitev2_21</t>
+  </si>
+  <si>
+    <t>benchmarks_perlitev2_22</t>
+  </si>
+  <si>
+    <t>benchmarks_perlitev2_23</t>
+  </si>
+  <si>
+    <t>benchmarks_perlitev2_24</t>
+  </si>
+  <si>
+    <t>benchmarks_perlitev2_25</t>
+  </si>
+  <si>
+    <t>benchmarks_perlitev2_26</t>
+  </si>
+  <si>
+    <t>benchmarks_perlitev2_27</t>
+  </si>
+  <si>
+    <t>benchmarks_perlitev2_28</t>
+  </si>
+  <si>
+    <t>benchmarks_perlitev2_29</t>
+  </si>
+  <si>
+    <t>benchmarks_perlitev2_30</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv2_1</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv2_2</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv2_3</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv2_4</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv2_5</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv2_6</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv2_7</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv2_8</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv2_9</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv2_10</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv2_11</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv2_12</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv2_13</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv2_14</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv2_15</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv2_16</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv2_17</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv2_18</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv2_19</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv2_20</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv2_21</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv2_22</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv2_23</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv2_24</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv2_25</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv2_26</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv2_27</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv2_28</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv2_29</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv2_30</t>
+  </si>
+  <si>
+    <t>benchmarks_otherWEL_1</t>
+  </si>
+  <si>
+    <t>benchmarks_otherWEL_2</t>
+  </si>
+  <si>
+    <t>benchmarks_otherWEL_3</t>
+  </si>
+  <si>
+    <t>benchmarks_otherWEL_4</t>
+  </si>
+  <si>
+    <t>benchmarks_otherWEL_5</t>
+  </si>
+  <si>
+    <t>benchmarks_otherWEL_6</t>
+  </si>
+  <si>
+    <t>benchmarks_otherWEL_7</t>
+  </si>
+  <si>
+    <t>benchmarks_otherWEL_8</t>
+  </si>
+  <si>
+    <t>benchmarks_otherWEL_9</t>
+  </si>
+  <si>
+    <t>benchmarks_otherWEL_10</t>
+  </si>
+  <si>
+    <t>benchmarks_otherWEL_11</t>
+  </si>
+  <si>
+    <t>benchmarks_otherWEL_12</t>
+  </si>
+  <si>
+    <t>benchmarks_otherWEL_13</t>
+  </si>
+  <si>
+    <t>benchmarks_otherWEL_14</t>
+  </si>
+  <si>
+    <t>benchmarks_otherWEL_15</t>
+  </si>
+  <si>
+    <t>benchmarks_otherWEL_16</t>
+  </si>
+  <si>
+    <t>benchmarks_otherWEL_17</t>
+  </si>
+  <si>
+    <t>benchmarks_otherWEL_18</t>
+  </si>
+  <si>
+    <t>benchmarks_otherWEL_19</t>
+  </si>
+  <si>
+    <t>benchmarks_otherWEL_20</t>
+  </si>
+  <si>
+    <t>benchmarks_otherWEL_21</t>
+  </si>
+  <si>
+    <t>benchmarks_otherWEL_22</t>
+  </si>
+  <si>
+    <t>benchmarks_otherWEL_23</t>
+  </si>
+  <si>
+    <t>benchmarks_otherWEL_24</t>
+  </si>
+  <si>
+    <t>benchmarks_otherWEL_25</t>
+  </si>
+  <si>
+    <t>benchmarks_otherWEL_26</t>
+  </si>
+  <si>
+    <t>benchmarks_otherWEL_27</t>
+  </si>
+  <si>
+    <t>benchmarks_otherWEL_28</t>
+  </si>
+  <si>
+    <t>benchmarks_otherWEL_29</t>
+  </si>
+  <si>
+    <t>benchmarks_otherWEL_30</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv3_1</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv3_2</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv3_3</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv3_4</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv3_5</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv3_6</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv3_7</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv3_8</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv3_9</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv3_10</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv3_11</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv3_12</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv3_13</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv3_14</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv3_15</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv3_16</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv3_17</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv3_18</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv3_19</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv3_20</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv3_21</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv3_22</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv3_23</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv3_24</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv3_25</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv3_26</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv3_27</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv3_28</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv3_29</t>
+  </si>
+  <si>
+    <t>benchmarks_WELv3_30</t>
   </si>
 </sst>
 </file>
@@ -1467,10 +2676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N55"/>
+  <dimension ref="B1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="O49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R71" sqref="R71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1483,11 +2692,18 @@
     <col min="7" max="7" width="29.1796875" customWidth="1"/>
     <col min="8" max="8" width="26.7265625" customWidth="1"/>
     <col min="9" max="9" width="21.54296875" customWidth="1"/>
-    <col min="10" max="10" width="21.26953125" customWidth="1"/>
-    <col min="11" max="11" width="20.7265625" customWidth="1"/>
-    <col min="12" max="12" width="17.453125" customWidth="1"/>
-    <col min="13" max="13" width="18.54296875" customWidth="1"/>
-    <col min="14" max="14" width="12.54296875" customWidth="1"/>
+    <col min="10" max="10" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.1796875" customWidth="1"/>
+    <col min="12" max="12" width="34.81640625" customWidth="1"/>
+    <col min="13" max="13" width="39.453125" customWidth="1"/>
+    <col min="14" max="14" width="34.26953125" customWidth="1"/>
+    <col min="15" max="15" width="29.90625" customWidth="1"/>
+    <col min="16" max="16" width="26.26953125" customWidth="1"/>
+    <col min="17" max="17" width="29" customWidth="1"/>
+    <col min="18" max="18" width="33.81640625" customWidth="1"/>
+    <col min="19" max="19" width="24.81640625" customWidth="1"/>
+    <col min="20" max="20" width="23.90625" customWidth="1"/>
+    <col min="21" max="21" width="30.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.35">
@@ -2319,6 +3535,9 @@
       <c r="G28" t="s">
         <v>345</v>
       </c>
+      <c r="H28" t="s">
+        <v>373</v>
+      </c>
       <c r="K28" t="s">
         <v>135</v>
       </c>
@@ -2342,6 +3561,9 @@
       <c r="G29" t="s">
         <v>346</v>
       </c>
+      <c r="H29" t="s">
+        <v>374</v>
+      </c>
       <c r="K29" t="s">
         <v>136</v>
       </c>
@@ -2362,6 +3584,9 @@
       <c r="G30" t="s">
         <v>347</v>
       </c>
+      <c r="H30" t="s">
+        <v>375</v>
+      </c>
       <c r="K30" t="s">
         <v>137</v>
       </c>
@@ -2382,6 +3607,9 @@
       <c r="G31" t="s">
         <v>348</v>
       </c>
+      <c r="H31" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
@@ -2396,8 +3624,11 @@
       <c r="G32" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H32" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>260</v>
       </c>
@@ -2410,8 +3641,11 @@
       <c r="G33" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H33" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>261</v>
       </c>
@@ -2424,8 +3658,11 @@
       <c r="G34" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H34" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>271</v>
       </c>
@@ -2438,8 +3675,11 @@
       <c r="G35" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H35" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>273</v>
       </c>
@@ -2452,8 +3692,11 @@
       <c r="G36" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H36" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>274</v>
       </c>
@@ -2466,8 +3709,11 @@
       <c r="G37" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H37" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>275</v>
       </c>
@@ -2480,8 +3726,11 @@
       <c r="G38" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H38" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>276</v>
       </c>
@@ -2494,8 +3743,11 @@
       <c r="G39" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H39" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>277</v>
       </c>
@@ -2508,8 +3760,11 @@
       <c r="G40" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H40" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>278</v>
       </c>
@@ -2522,8 +3777,11 @@
       <c r="G41" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H41" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>279</v>
       </c>
@@ -2536,8 +3794,11 @@
       <c r="G42" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H42" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>280</v>
       </c>
@@ -2550,8 +3811,11 @@
       <c r="G43" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H43" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>281</v>
       </c>
@@ -2564,8 +3828,11 @@
       <c r="G44" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H44" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>282</v>
       </c>
@@ -2578,8 +3845,11 @@
       <c r="G45" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H45" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>283</v>
       </c>
@@ -2592,8 +3862,11 @@
       <c r="G46" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H46" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>284</v>
       </c>
@@ -2606,8 +3879,11 @@
       <c r="G47" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H47" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>285</v>
       </c>
@@ -2620,8 +3896,11 @@
       <c r="G48" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H48" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>286</v>
       </c>
@@ -2634,8 +3913,11 @@
       <c r="G49" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H49" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>287</v>
       </c>
@@ -2648,8 +3930,11 @@
       <c r="G50" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H50" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>288</v>
       </c>
@@ -2662,8 +3947,47 @@
       <c r="G51" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H51" t="s">
+        <v>396</v>
+      </c>
+      <c r="J51" t="s">
+        <v>416</v>
+      </c>
+      <c r="K51" t="s">
+        <v>446</v>
+      </c>
+      <c r="L51" t="s">
+        <v>477</v>
+      </c>
+      <c r="M51" t="s">
+        <v>507</v>
+      </c>
+      <c r="N51" t="s">
+        <v>537</v>
+      </c>
+      <c r="O51" t="s">
+        <v>567</v>
+      </c>
+      <c r="P51" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>626</v>
+      </c>
+      <c r="R51" t="s">
+        <v>656</v>
+      </c>
+      <c r="S51" t="s">
+        <v>686</v>
+      </c>
+      <c r="T51" t="s">
+        <v>716</v>
+      </c>
+      <c r="U51" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>289</v>
       </c>
@@ -2676,8 +4000,47 @@
       <c r="G52" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H52" t="s">
+        <v>397</v>
+      </c>
+      <c r="J52" t="s">
+        <v>417</v>
+      </c>
+      <c r="K52" t="s">
+        <v>448</v>
+      </c>
+      <c r="L52" t="s">
+        <v>478</v>
+      </c>
+      <c r="M52" t="s">
+        <v>508</v>
+      </c>
+      <c r="N52" t="s">
+        <v>538</v>
+      </c>
+      <c r="O52" t="s">
+        <v>568</v>
+      </c>
+      <c r="P52" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>627</v>
+      </c>
+      <c r="R52" t="s">
+        <v>657</v>
+      </c>
+      <c r="S52" t="s">
+        <v>687</v>
+      </c>
+      <c r="T52" t="s">
+        <v>717</v>
+      </c>
+      <c r="U52" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>290</v>
       </c>
@@ -2690,8 +4053,47 @@
       <c r="G53" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H53" t="s">
+        <v>398</v>
+      </c>
+      <c r="J53" t="s">
+        <v>418</v>
+      </c>
+      <c r="K53" t="s">
+        <v>449</v>
+      </c>
+      <c r="L53" t="s">
+        <v>479</v>
+      </c>
+      <c r="M53" t="s">
+        <v>509</v>
+      </c>
+      <c r="N53" t="s">
+        <v>539</v>
+      </c>
+      <c r="O53" t="s">
+        <v>569</v>
+      </c>
+      <c r="P53" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>628</v>
+      </c>
+      <c r="R53" t="s">
+        <v>658</v>
+      </c>
+      <c r="S53" t="s">
+        <v>688</v>
+      </c>
+      <c r="T53" t="s">
+        <v>718</v>
+      </c>
+      <c r="U53" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>291</v>
       </c>
@@ -2704,8 +4106,47 @@
       <c r="G54" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H54" t="s">
+        <v>399</v>
+      </c>
+      <c r="J54" t="s">
+        <v>419</v>
+      </c>
+      <c r="K54" t="s">
+        <v>450</v>
+      </c>
+      <c r="L54" t="s">
+        <v>480</v>
+      </c>
+      <c r="M54" t="s">
+        <v>510</v>
+      </c>
+      <c r="N54" t="s">
+        <v>540</v>
+      </c>
+      <c r="O54" t="s">
+        <v>570</v>
+      </c>
+      <c r="P54" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>629</v>
+      </c>
+      <c r="R54" t="s">
+        <v>659</v>
+      </c>
+      <c r="S54" t="s">
+        <v>689</v>
+      </c>
+      <c r="T54" t="s">
+        <v>719</v>
+      </c>
+      <c r="U54" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>292</v>
       </c>
@@ -2717,11 +4158,1045 @@
       </c>
       <c r="G55" t="s">
         <v>372</v>
+      </c>
+      <c r="H55" t="s">
+        <v>400</v>
+      </c>
+      <c r="J55" t="s">
+        <v>420</v>
+      </c>
+      <c r="K55" t="s">
+        <v>451</v>
+      </c>
+      <c r="L55" t="s">
+        <v>481</v>
+      </c>
+      <c r="M55" t="s">
+        <v>511</v>
+      </c>
+      <c r="N55" t="s">
+        <v>541</v>
+      </c>
+      <c r="O55" t="s">
+        <v>571</v>
+      </c>
+      <c r="P55" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>630</v>
+      </c>
+      <c r="R55" t="s">
+        <v>660</v>
+      </c>
+      <c r="S55" t="s">
+        <v>690</v>
+      </c>
+      <c r="T55" t="s">
+        <v>720</v>
+      </c>
+      <c r="U55" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="H56" t="s">
+        <v>401</v>
+      </c>
+      <c r="J56" t="s">
+        <v>421</v>
+      </c>
+      <c r="K56" t="s">
+        <v>452</v>
+      </c>
+      <c r="L56" t="s">
+        <v>482</v>
+      </c>
+      <c r="M56" t="s">
+        <v>512</v>
+      </c>
+      <c r="N56" t="s">
+        <v>542</v>
+      </c>
+      <c r="O56" t="s">
+        <v>447</v>
+      </c>
+      <c r="P56" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>631</v>
+      </c>
+      <c r="R56" t="s">
+        <v>661</v>
+      </c>
+      <c r="S56" t="s">
+        <v>691</v>
+      </c>
+      <c r="T56" t="s">
+        <v>721</v>
+      </c>
+      <c r="U56" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="H57" t="s">
+        <v>402</v>
+      </c>
+      <c r="J57" t="s">
+        <v>422</v>
+      </c>
+      <c r="K57" t="s">
+        <v>453</v>
+      </c>
+      <c r="L57" t="s">
+        <v>483</v>
+      </c>
+      <c r="M57" t="s">
+        <v>513</v>
+      </c>
+      <c r="N57" t="s">
+        <v>543</v>
+      </c>
+      <c r="O57" t="s">
+        <v>572</v>
+      </c>
+      <c r="P57" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>632</v>
+      </c>
+      <c r="R57" t="s">
+        <v>662</v>
+      </c>
+      <c r="S57" t="s">
+        <v>692</v>
+      </c>
+      <c r="T57" t="s">
+        <v>722</v>
+      </c>
+      <c r="U57" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="H58" t="s">
+        <v>403</v>
+      </c>
+      <c r="J58" t="s">
+        <v>423</v>
+      </c>
+      <c r="K58" t="s">
+        <v>454</v>
+      </c>
+      <c r="L58" t="s">
+        <v>484</v>
+      </c>
+      <c r="M58" t="s">
+        <v>514</v>
+      </c>
+      <c r="N58" t="s">
+        <v>544</v>
+      </c>
+      <c r="O58" t="s">
+        <v>573</v>
+      </c>
+      <c r="P58" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>633</v>
+      </c>
+      <c r="R58" t="s">
+        <v>663</v>
+      </c>
+      <c r="S58" t="s">
+        <v>693</v>
+      </c>
+      <c r="T58" t="s">
+        <v>723</v>
+      </c>
+      <c r="U58" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="H59" t="s">
+        <v>404</v>
+      </c>
+      <c r="J59" t="s">
+        <v>424</v>
+      </c>
+      <c r="K59" t="s">
+        <v>455</v>
+      </c>
+      <c r="L59" t="s">
+        <v>485</v>
+      </c>
+      <c r="M59" t="s">
+        <v>515</v>
+      </c>
+      <c r="N59" t="s">
+        <v>545</v>
+      </c>
+      <c r="O59" t="s">
+        <v>574</v>
+      </c>
+      <c r="P59" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>634</v>
+      </c>
+      <c r="R59" t="s">
+        <v>664</v>
+      </c>
+      <c r="S59" t="s">
+        <v>694</v>
+      </c>
+      <c r="T59" t="s">
+        <v>724</v>
+      </c>
+      <c r="U59" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="H60" t="s">
+        <v>405</v>
+      </c>
+      <c r="J60" t="s">
+        <v>425</v>
+      </c>
+      <c r="K60" t="s">
+        <v>456</v>
+      </c>
+      <c r="L60" t="s">
+        <v>486</v>
+      </c>
+      <c r="M60" t="s">
+        <v>516</v>
+      </c>
+      <c r="N60" t="s">
+        <v>546</v>
+      </c>
+      <c r="O60" t="s">
+        <v>575</v>
+      </c>
+      <c r="P60" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>635</v>
+      </c>
+      <c r="R60" t="s">
+        <v>665</v>
+      </c>
+      <c r="S60" t="s">
+        <v>695</v>
+      </c>
+      <c r="T60" t="s">
+        <v>725</v>
+      </c>
+      <c r="U60" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="H61" t="s">
+        <v>406</v>
+      </c>
+      <c r="J61" t="s">
+        <v>426</v>
+      </c>
+      <c r="K61" t="s">
+        <v>457</v>
+      </c>
+      <c r="L61" t="s">
+        <v>487</v>
+      </c>
+      <c r="M61" t="s">
+        <v>517</v>
+      </c>
+      <c r="N61" t="s">
+        <v>547</v>
+      </c>
+      <c r="O61" t="s">
+        <v>576</v>
+      </c>
+      <c r="P61" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>636</v>
+      </c>
+      <c r="R61" t="s">
+        <v>666</v>
+      </c>
+      <c r="S61" t="s">
+        <v>696</v>
+      </c>
+      <c r="T61" t="s">
+        <v>726</v>
+      </c>
+      <c r="U61" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="H62" t="s">
+        <v>407</v>
+      </c>
+      <c r="J62" t="s">
+        <v>427</v>
+      </c>
+      <c r="K62" t="s">
+        <v>458</v>
+      </c>
+      <c r="L62" t="s">
+        <v>488</v>
+      </c>
+      <c r="M62" t="s">
+        <v>518</v>
+      </c>
+      <c r="N62" t="s">
+        <v>548</v>
+      </c>
+      <c r="O62" t="s">
+        <v>577</v>
+      </c>
+      <c r="P62" t="s">
+        <v>607</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>637</v>
+      </c>
+      <c r="R62" t="s">
+        <v>667</v>
+      </c>
+      <c r="S62" t="s">
+        <v>697</v>
+      </c>
+      <c r="T62" t="s">
+        <v>727</v>
+      </c>
+      <c r="U62" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="H63" t="s">
+        <v>408</v>
+      </c>
+      <c r="J63" t="s">
+        <v>428</v>
+      </c>
+      <c r="K63" t="s">
+        <v>459</v>
+      </c>
+      <c r="L63" t="s">
+        <v>489</v>
+      </c>
+      <c r="M63" t="s">
+        <v>519</v>
+      </c>
+      <c r="N63" t="s">
+        <v>549</v>
+      </c>
+      <c r="O63" t="s">
+        <v>578</v>
+      </c>
+      <c r="P63" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>638</v>
+      </c>
+      <c r="R63" t="s">
+        <v>668</v>
+      </c>
+      <c r="S63" t="s">
+        <v>698</v>
+      </c>
+      <c r="T63" t="s">
+        <v>728</v>
+      </c>
+      <c r="U63" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="H64" t="s">
+        <v>409</v>
+      </c>
+      <c r="J64" t="s">
+        <v>429</v>
+      </c>
+      <c r="K64" t="s">
+        <v>460</v>
+      </c>
+      <c r="L64" t="s">
+        <v>490</v>
+      </c>
+      <c r="M64" t="s">
+        <v>520</v>
+      </c>
+      <c r="N64" t="s">
+        <v>550</v>
+      </c>
+      <c r="O64" t="s">
+        <v>579</v>
+      </c>
+      <c r="P64" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>639</v>
+      </c>
+      <c r="R64" t="s">
+        <v>669</v>
+      </c>
+      <c r="S64" t="s">
+        <v>699</v>
+      </c>
+      <c r="T64" t="s">
+        <v>729</v>
+      </c>
+      <c r="U64" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="65" spans="8:21" x14ac:dyDescent="0.35">
+      <c r="H65" t="s">
+        <v>410</v>
+      </c>
+      <c r="J65" t="s">
+        <v>430</v>
+      </c>
+      <c r="K65" t="s">
+        <v>461</v>
+      </c>
+      <c r="L65" t="s">
+        <v>491</v>
+      </c>
+      <c r="M65" t="s">
+        <v>521</v>
+      </c>
+      <c r="N65" t="s">
+        <v>551</v>
+      </c>
+      <c r="O65" t="s">
+        <v>580</v>
+      </c>
+      <c r="P65" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>640</v>
+      </c>
+      <c r="R65" t="s">
+        <v>670</v>
+      </c>
+      <c r="S65" t="s">
+        <v>700</v>
+      </c>
+      <c r="T65" t="s">
+        <v>730</v>
+      </c>
+      <c r="U65" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="66" spans="8:21" x14ac:dyDescent="0.35">
+      <c r="H66" t="s">
+        <v>411</v>
+      </c>
+      <c r="J66" t="s">
+        <v>431</v>
+      </c>
+      <c r="K66" t="s">
+        <v>462</v>
+      </c>
+      <c r="L66" t="s">
+        <v>492</v>
+      </c>
+      <c r="M66" t="s">
+        <v>522</v>
+      </c>
+      <c r="N66" t="s">
+        <v>552</v>
+      </c>
+      <c r="O66" t="s">
+        <v>581</v>
+      </c>
+      <c r="P66" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>641</v>
+      </c>
+      <c r="R66" t="s">
+        <v>671</v>
+      </c>
+      <c r="S66" t="s">
+        <v>701</v>
+      </c>
+      <c r="T66" t="s">
+        <v>731</v>
+      </c>
+      <c r="U66" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="67" spans="8:21" x14ac:dyDescent="0.35">
+      <c r="H67" t="s">
+        <v>412</v>
+      </c>
+      <c r="J67" t="s">
+        <v>432</v>
+      </c>
+      <c r="K67" t="s">
+        <v>463</v>
+      </c>
+      <c r="L67" t="s">
+        <v>493</v>
+      </c>
+      <c r="M67" t="s">
+        <v>523</v>
+      </c>
+      <c r="N67" t="s">
+        <v>553</v>
+      </c>
+      <c r="O67" t="s">
+        <v>582</v>
+      </c>
+      <c r="P67" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>642</v>
+      </c>
+      <c r="R67" t="s">
+        <v>672</v>
+      </c>
+      <c r="S67" t="s">
+        <v>702</v>
+      </c>
+      <c r="T67" t="s">
+        <v>732</v>
+      </c>
+      <c r="U67" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="68" spans="8:21" x14ac:dyDescent="0.35">
+      <c r="H68" t="s">
+        <v>413</v>
+      </c>
+      <c r="J68" t="s">
+        <v>433</v>
+      </c>
+      <c r="K68" t="s">
+        <v>464</v>
+      </c>
+      <c r="L68" t="s">
+        <v>494</v>
+      </c>
+      <c r="M68" t="s">
+        <v>524</v>
+      </c>
+      <c r="N68" t="s">
+        <v>554</v>
+      </c>
+      <c r="O68" t="s">
+        <v>583</v>
+      </c>
+      <c r="P68" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>643</v>
+      </c>
+      <c r="R68" t="s">
+        <v>673</v>
+      </c>
+      <c r="S68" t="s">
+        <v>703</v>
+      </c>
+      <c r="T68" t="s">
+        <v>733</v>
+      </c>
+      <c r="U68" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="69" spans="8:21" x14ac:dyDescent="0.35">
+      <c r="H69" t="s">
+        <v>414</v>
+      </c>
+      <c r="J69" t="s">
+        <v>434</v>
+      </c>
+      <c r="K69" t="s">
+        <v>465</v>
+      </c>
+      <c r="L69" t="s">
+        <v>495</v>
+      </c>
+      <c r="M69" t="s">
+        <v>525</v>
+      </c>
+      <c r="N69" t="s">
+        <v>555</v>
+      </c>
+      <c r="O69" t="s">
+        <v>584</v>
+      </c>
+      <c r="P69" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>644</v>
+      </c>
+      <c r="R69" t="s">
+        <v>674</v>
+      </c>
+      <c r="S69" t="s">
+        <v>704</v>
+      </c>
+      <c r="T69" t="s">
+        <v>734</v>
+      </c>
+      <c r="U69" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="70" spans="8:21" x14ac:dyDescent="0.35">
+      <c r="H70" t="s">
+        <v>415</v>
+      </c>
+      <c r="J70" t="s">
+        <v>435</v>
+      </c>
+      <c r="K70" t="s">
+        <v>466</v>
+      </c>
+      <c r="L70" t="s">
+        <v>496</v>
+      </c>
+      <c r="M70" t="s">
+        <v>526</v>
+      </c>
+      <c r="N70" t="s">
+        <v>556</v>
+      </c>
+      <c r="O70" t="s">
+        <v>585</v>
+      </c>
+      <c r="P70" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>645</v>
+      </c>
+      <c r="R70" t="s">
+        <v>675</v>
+      </c>
+      <c r="S70" t="s">
+        <v>705</v>
+      </c>
+      <c r="T70" t="s">
+        <v>735</v>
+      </c>
+      <c r="U70" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="71" spans="8:21" x14ac:dyDescent="0.35">
+      <c r="J71" t="s">
+        <v>436</v>
+      </c>
+      <c r="K71" t="s">
+        <v>467</v>
+      </c>
+      <c r="L71" t="s">
+        <v>497</v>
+      </c>
+      <c r="M71" t="s">
+        <v>527</v>
+      </c>
+      <c r="N71" t="s">
+        <v>557</v>
+      </c>
+      <c r="O71" t="s">
+        <v>586</v>
+      </c>
+      <c r="P71" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>646</v>
+      </c>
+      <c r="R71" t="s">
+        <v>676</v>
+      </c>
+      <c r="S71" t="s">
+        <v>706</v>
+      </c>
+      <c r="T71" t="s">
+        <v>736</v>
+      </c>
+      <c r="U71" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="72" spans="8:21" x14ac:dyDescent="0.35">
+      <c r="J72" t="s">
+        <v>437</v>
+      </c>
+      <c r="K72" t="s">
+        <v>468</v>
+      </c>
+      <c r="L72" t="s">
+        <v>498</v>
+      </c>
+      <c r="M72" t="s">
+        <v>528</v>
+      </c>
+      <c r="N72" t="s">
+        <v>558</v>
+      </c>
+      <c r="O72" t="s">
+        <v>587</v>
+      </c>
+      <c r="P72" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>647</v>
+      </c>
+      <c r="R72" t="s">
+        <v>677</v>
+      </c>
+      <c r="S72" t="s">
+        <v>707</v>
+      </c>
+      <c r="T72" t="s">
+        <v>737</v>
+      </c>
+      <c r="U72" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="73" spans="8:21" x14ac:dyDescent="0.35">
+      <c r="J73" t="s">
+        <v>438</v>
+      </c>
+      <c r="K73" t="s">
+        <v>469</v>
+      </c>
+      <c r="L73" t="s">
+        <v>499</v>
+      </c>
+      <c r="M73" t="s">
+        <v>529</v>
+      </c>
+      <c r="N73" t="s">
+        <v>559</v>
+      </c>
+      <c r="O73" t="s">
+        <v>588</v>
+      </c>
+      <c r="P73" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>648</v>
+      </c>
+      <c r="R73" t="s">
+        <v>678</v>
+      </c>
+      <c r="S73" t="s">
+        <v>708</v>
+      </c>
+      <c r="T73" t="s">
+        <v>738</v>
+      </c>
+      <c r="U73" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="74" spans="8:21" x14ac:dyDescent="0.35">
+      <c r="J74" t="s">
+        <v>439</v>
+      </c>
+      <c r="K74" t="s">
+        <v>470</v>
+      </c>
+      <c r="L74" t="s">
+        <v>500</v>
+      </c>
+      <c r="M74" t="s">
+        <v>530</v>
+      </c>
+      <c r="N74" t="s">
+        <v>560</v>
+      </c>
+      <c r="O74" t="s">
+        <v>589</v>
+      </c>
+      <c r="P74" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>649</v>
+      </c>
+      <c r="R74" t="s">
+        <v>679</v>
+      </c>
+      <c r="S74" t="s">
+        <v>709</v>
+      </c>
+      <c r="T74" t="s">
+        <v>739</v>
+      </c>
+      <c r="U74" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="75" spans="8:21" x14ac:dyDescent="0.35">
+      <c r="J75" t="s">
+        <v>440</v>
+      </c>
+      <c r="K75" t="s">
+        <v>471</v>
+      </c>
+      <c r="L75" t="s">
+        <v>501</v>
+      </c>
+      <c r="M75" t="s">
+        <v>531</v>
+      </c>
+      <c r="N75" t="s">
+        <v>561</v>
+      </c>
+      <c r="O75" t="s">
+        <v>590</v>
+      </c>
+      <c r="P75" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>650</v>
+      </c>
+      <c r="R75" t="s">
+        <v>680</v>
+      </c>
+      <c r="S75" t="s">
+        <v>710</v>
+      </c>
+      <c r="T75" t="s">
+        <v>740</v>
+      </c>
+      <c r="U75" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="76" spans="8:21" x14ac:dyDescent="0.35">
+      <c r="J76" t="s">
+        <v>441</v>
+      </c>
+      <c r="K76" t="s">
+        <v>472</v>
+      </c>
+      <c r="L76" t="s">
+        <v>502</v>
+      </c>
+      <c r="M76" t="s">
+        <v>532</v>
+      </c>
+      <c r="N76" t="s">
+        <v>562</v>
+      </c>
+      <c r="O76" t="s">
+        <v>591</v>
+      </c>
+      <c r="P76" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>651</v>
+      </c>
+      <c r="R76" t="s">
+        <v>681</v>
+      </c>
+      <c r="S76" t="s">
+        <v>711</v>
+      </c>
+      <c r="T76" t="s">
+        <v>741</v>
+      </c>
+      <c r="U76" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="77" spans="8:21" x14ac:dyDescent="0.35">
+      <c r="J77" t="s">
+        <v>442</v>
+      </c>
+      <c r="K77" t="s">
+        <v>473</v>
+      </c>
+      <c r="L77" t="s">
+        <v>503</v>
+      </c>
+      <c r="M77" t="s">
+        <v>533</v>
+      </c>
+      <c r="N77" t="s">
+        <v>563</v>
+      </c>
+      <c r="O77" t="s">
+        <v>592</v>
+      </c>
+      <c r="P77" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>652</v>
+      </c>
+      <c r="R77" t="s">
+        <v>682</v>
+      </c>
+      <c r="S77" t="s">
+        <v>712</v>
+      </c>
+      <c r="T77" t="s">
+        <v>742</v>
+      </c>
+      <c r="U77" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="78" spans="8:21" x14ac:dyDescent="0.35">
+      <c r="J78" t="s">
+        <v>443</v>
+      </c>
+      <c r="K78" t="s">
+        <v>474</v>
+      </c>
+      <c r="L78" t="s">
+        <v>504</v>
+      </c>
+      <c r="M78" t="s">
+        <v>534</v>
+      </c>
+      <c r="N78" t="s">
+        <v>564</v>
+      </c>
+      <c r="O78" t="s">
+        <v>593</v>
+      </c>
+      <c r="P78" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>653</v>
+      </c>
+      <c r="R78" t="s">
+        <v>683</v>
+      </c>
+      <c r="S78" t="s">
+        <v>713</v>
+      </c>
+      <c r="T78" t="s">
+        <v>743</v>
+      </c>
+      <c r="U78" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="79" spans="8:21" x14ac:dyDescent="0.35">
+      <c r="J79" t="s">
+        <v>444</v>
+      </c>
+      <c r="K79" t="s">
+        <v>475</v>
+      </c>
+      <c r="L79" t="s">
+        <v>505</v>
+      </c>
+      <c r="M79" t="s">
+        <v>535</v>
+      </c>
+      <c r="N79" t="s">
+        <v>565</v>
+      </c>
+      <c r="O79" t="s">
+        <v>594</v>
+      </c>
+      <c r="P79" t="s">
+        <v>624</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>654</v>
+      </c>
+      <c r="R79" t="s">
+        <v>684</v>
+      </c>
+      <c r="S79" t="s">
+        <v>714</v>
+      </c>
+      <c r="T79" t="s">
+        <v>744</v>
+      </c>
+      <c r="U79" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="80" spans="8:21" x14ac:dyDescent="0.35">
+      <c r="J80" t="s">
+        <v>445</v>
+      </c>
+      <c r="K80" t="s">
+        <v>476</v>
+      </c>
+      <c r="L80" t="s">
+        <v>506</v>
+      </c>
+      <c r="M80" t="s">
+        <v>536</v>
+      </c>
+      <c r="N80" t="s">
+        <v>566</v>
+      </c>
+      <c r="O80" t="s">
+        <v>595</v>
+      </c>
+      <c r="P80" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>655</v>
+      </c>
+      <c r="R80" t="s">
+        <v>685</v>
+      </c>
+      <c r="S80" t="s">
+        <v>715</v>
+      </c>
+      <c r="T80" t="s">
+        <v>745</v>
+      </c>
+      <c r="U80" t="s">
+        <v>775</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/nom_fichiers.xlsx
+++ b/nom_fichiers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\PRI\enregistrements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE0B9A4-9A5F-43C2-B7C7-FDA0C3A44396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEE4ABD-4EA9-46EB-B1CC-7A0602E2A832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="1496">
   <si>
     <t>test_FxFy_perlite_1</t>
   </si>
@@ -2353,6 +2353,2166 @@
   </si>
   <si>
     <t>benchmarks_WELv3_30</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I2_1</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I2_2</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I2_3</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I2_4</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I2_5</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I2_6</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I2_7</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I2_8</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I2_9</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I2_10</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I2_11</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I2_12</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I2_13</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I2_14</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I2_15</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I2_16</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I2_17</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I2_18</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I2_19</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I2_20</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I2_21</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I2_22</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I2_23</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I2_24</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I2_25</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I2_26</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I2_27</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I2_28</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I2_29</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1I2_30</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite2_1</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite2_2</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite2_3</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite2_4</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite2_5</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite2_6</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite2_7</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite2_8</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite2_9</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite2_10</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite2_11</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite2_12</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite2_13</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite2_14</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite2_15</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite2_16</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite2_17</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite2_18</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite2_19</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite2_20</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite2_21</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite2_22</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite2_23</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite2_24</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite2_25</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite2_26</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite2_27</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite2_28</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite2_29</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite2_30</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC6II2_1</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II2_1</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II2_2</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II2_3</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II2_4</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II2_5</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II2_6</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II2_7</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II2_8</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II2_9</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II2_10</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II2_11</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II2_12</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II2_13</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II2_14</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II2_15</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II2_16</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II2_17</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II2_18</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II2_19</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II2_20</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II2_21</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II2_22</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II2_23</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II2_24</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II2_25</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II2_26</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II2_27</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II2_28</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II2_29</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1II2_30</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_1</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_2</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_3</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_4</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_5</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_6</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_7</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_8</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_9</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_10</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_11</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_12</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_13</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_14</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_15</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_16</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_17</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_18</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_19</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_20</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_21</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_22</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_23</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_24</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_25</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_26</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_27</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_28</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_29</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_30</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_31</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_32</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_33</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_34</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_35</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_36</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_37</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_38</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_39</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_40</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_41</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_42</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_43</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_44</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_45</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_46</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_47</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_48</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_49</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_50</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_51</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_52</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_53</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_54</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_55</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_56</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_57</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_58</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_59</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1III2_60</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_1</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_2</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_3</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_4</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_5</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_6</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_7</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_8</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_9</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_10</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_11</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_12</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_13</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_14</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_15</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_16</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_17</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_18</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_19</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_20</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_21</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_22</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_23</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_24</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_25</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_26</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_27</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_28</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_29</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_30</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_31</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_32</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_33</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_34</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_35</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_36</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_37</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_38</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_39</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_40</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_41</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_42</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_43</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_44</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_45</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_46</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_47</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_48</t>
+  </si>
+  <si>
+    <t>benchmarks_triboringC1IV2_49</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite2_1</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite2_2</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite2_3</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite2_4</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite2_5</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite2_6</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite2_7</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite2_8</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite2_9</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite2_10</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite2_11</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite2_12</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite2_13</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite2_14</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite2_15</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite2_16</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite2_17</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite2_18</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite2_19</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite2_20</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite2_21</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite2_22</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite2_23</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite2_24</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite2_25</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite2_26</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite2_27</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite2_28</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite2_29</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite2_30</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite3_1</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite3_2</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite3_3</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite3_4</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite3_5</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite3_6</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite3_7</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite3_8</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite3_9</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite3_10</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite3_11</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite3_12</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite3_13</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite3_14</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite3_15</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite3_16</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite3_17</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite3_18</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite3_19</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite3_20</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite3_21</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite3_22</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite3_23</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite3_24</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite3_25</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite3_26</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite3_27</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite3_28</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite3_29</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite3_30</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite4_1</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite4_2</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite4_3</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite4_4</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite4_5</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite4_6</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite4_7</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite4_8</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite4_9</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite4_10</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite4_11</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite4_12</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite4_13</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite4_14</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite4_15</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite4_16</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite4_17</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite4_18</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite4_19</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite4_20</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite4_21</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite4_22</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite4_23</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite4_24</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite4_25</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite4_26</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite4_27</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite4_28</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite4_29</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite4_30</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite5_1</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite5_2</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite5_3</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite5_4</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite5_5</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite5_6</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite5_7</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite5_8</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite5_9</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite5_10</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite5_11</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite5_12</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite5_13</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite5_14</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite5_15</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite5_16</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite5_17</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite5_18</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite5_19</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite5_20</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite5_21</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite5_22</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite5_23</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite5_24</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite5_25</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite5_26</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite5_27</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite5_28</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite5_29</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite5_30</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite6_1</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite6_2</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite6_3</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite6_4</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite6_5</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite6_6</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite6_7</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite6_8</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite6_9</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite6_10</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite6_11</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite6_12</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite6_13</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite6_14</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite6_15</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite6_16</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite6_17</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite6_18</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite6_19</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite6_20</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite6_21</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite6_22</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite6_23</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite6_24</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite6_25</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite6_26</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite6_27</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite6_28</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite6_29</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite6_30</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite3_1</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite3_2</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite3_3</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite3_4</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite3_5</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite3_6</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite3_7</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite3_8</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite3_9</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite3_10</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite3_11</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite3_12</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite3_13</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite3_14</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite3_15</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite3_16</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite3_17</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite3_18</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite3_19</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite3_20</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite3_21</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite3_22</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite3_23</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite3_24</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite3_25</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite3_26</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite3_27</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite3_28</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite3_29</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite3_30</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite7_1</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite7_2</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite7_3</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite7_4</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite7_5</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite7_6</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite7_7</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite7_8</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite7_9</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite7_10</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite7_11</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite7_12</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite7_13</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite7_14</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite7_15</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite7_16</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite7_17</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite7_18</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite7_19</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite7_20</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite7_21</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite7_22</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite7_23</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite7_24</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite7_25</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite7_26</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite7_27</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite7_28</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite7_29</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite7_30</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite8_1</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite8_2</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite8_3</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite8_4</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite8_5</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite8_6</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite8_7</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite8_8</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite8_9</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite8_10</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite8_11</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite8_12</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite8_13</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite8_14</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite8_15</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite8_16</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite8_17</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite8_18</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite8_19</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite8_20</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite8_21</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite8_22</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite8_23</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite8_24</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite8_25</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite8_26</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite8_27</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite8_28</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite8_29</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite8_30</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite9_1</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite9_2</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite9_3</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite9_4</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite9_5</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite9_6</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite9_7</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite9_8</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite9_9</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite9_10</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite9_11</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite9_12</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite9_13</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite9_14</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite9_15</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite9_16</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite9_17</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite9_18</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite9_19</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite9_20</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite9_21</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite9_22</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite9_23</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite9_24</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite9_25</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite9_26</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite9_27</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite9_28</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite9_29</t>
+  </si>
+  <si>
+    <t>benchmarks_martensite9_30</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite4_1</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite4_2</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite5_1</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite5_2</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite6_1</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite4_3</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite4_4</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite4_5</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite4_6</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite4_7</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite4_8</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite4_9</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite4_10</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite4_11</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite4_12</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite4_13</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite4_14</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite4_15</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite4_16</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite4_17</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite4_18</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite4_19</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite4_20</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite4_21</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite4_22</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite4_23</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite4_24</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite4_25</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite4_26</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite4_27</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite4_28</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite4_29</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite4_30</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite5_3</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite5_4</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite5_5</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite5_6</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite5_7</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite5_8</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite5_9</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite5_10</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite5_11</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite5_12</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite5_13</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite5_14</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite5_15</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite5_16</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite5_17</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite5_18</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite5_19</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite5_20</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite5_21</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite5_22</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite5_23</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite5_24</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite5_25</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite5_26</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite5_27</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite5_28</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite5_29</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite5_30</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite6_2</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite6_3</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite6_4</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite6_5</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite6_6</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite6_7</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite6_8</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite6_9</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite6_10</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite6_11</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite6_12</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite6_13</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite6_14</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite6_15</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite6_16</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite6_17</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite6_18</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite6_19</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite6_20</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite6_21</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite6_22</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite6_23</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite6_24</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite6_25</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite6_26</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite6_27</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite6_28</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite6_29</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite6_30</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_1</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_2</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_3</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_4</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_5</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_6</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_7</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_8</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_9</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_10</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_11</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_12</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_13</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_14</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_15</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_16</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_17</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_18</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_19</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_20</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_21</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_22</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_23</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_24</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_25</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_26</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_27</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_28</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_29</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_30</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_31</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_32</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_33</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_34</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_35</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_36</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_37</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_38</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_39</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_40</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_41</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_42</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_43</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_44</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_45</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_46</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_47</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_48</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_49</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_50</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_51</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_52</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_53</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_54</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_55</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_56</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_57</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_58</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_59</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_60</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_61</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_62</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_63</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_64</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_65</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_66</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_67</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_68</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_69</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_70</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_71</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_72</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_73</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_74</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_75</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_76</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_77</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_78</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_79</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_80</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_81</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_82</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_83</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_84</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_85</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_86</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_87</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_88</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_89</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_90</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_91</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_92</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_93</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_94</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_95</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_96</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_97</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_98</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_99</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_100</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_101</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_102</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_103</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_104</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite7_105</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_1</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_2</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_3</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_4</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_5</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_6</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_7</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_8</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_9</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_10</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_11</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_12</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_13</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_14</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_15</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_16</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_17</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_18</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_19</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_20</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_21</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_22</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_23</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_24</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_25</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_26</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_27</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_28</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_29</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_30</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_31</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_32</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_33</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_34</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_35</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_36</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_37</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_38</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_39</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_40</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_41</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_42</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_43</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_44</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_45</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_46</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_47</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_48</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_49</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_50</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_51</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_52</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_53</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_54</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite8_55</t>
   </si>
 </sst>
 </file>
@@ -2676,19 +4836,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:U80"/>
+  <dimension ref="B1:V229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R71" sqref="R71"/>
+    <sheetView tabSelected="1" topLeftCell="I112" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="27.81640625" customWidth="1"/>
     <col min="3" max="3" width="31.6328125" customWidth="1"/>
-    <col min="4" max="4" width="23.6328125" customWidth="1"/>
-    <col min="5" max="5" width="28.26953125" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="37.7265625" customWidth="1"/>
+    <col min="6" max="6" width="29.36328125" customWidth="1"/>
     <col min="7" max="7" width="29.1796875" customWidth="1"/>
     <col min="8" max="8" width="26.7265625" customWidth="1"/>
     <col min="9" max="9" width="21.54296875" customWidth="1"/>
@@ -2704,6 +4864,7 @@
     <col min="19" max="19" width="24.81640625" customWidth="1"/>
     <col min="20" max="20" width="23.90625" customWidth="1"/>
     <col min="21" max="21" width="30.26953125" customWidth="1"/>
+    <col min="22" max="22" width="29.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.35">
@@ -3900,7 +6061,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>286</v>
       </c>
@@ -3917,7 +6078,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>287</v>
       </c>
@@ -3934,7 +6095,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>288</v>
       </c>
@@ -3986,8 +6147,11 @@
       <c r="U51" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="V51" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>289</v>
       </c>
@@ -4039,8 +6203,11 @@
       <c r="U52" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="V52" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>290</v>
       </c>
@@ -4092,8 +6259,11 @@
       <c r="U53" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="V53" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="54" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>291</v>
       </c>
@@ -4145,8 +6315,11 @@
       <c r="U54" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="V54" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>292</v>
       </c>
@@ -4198,8 +6371,11 @@
       <c r="U55" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="V55" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.35">
       <c r="H56" t="s">
         <v>401</v>
       </c>
@@ -4239,8 +6415,11 @@
       <c r="U56" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="V56" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22" x14ac:dyDescent="0.35">
       <c r="H57" t="s">
         <v>402</v>
       </c>
@@ -4280,8 +6459,11 @@
       <c r="U57" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="V57" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22" x14ac:dyDescent="0.35">
       <c r="H58" t="s">
         <v>403</v>
       </c>
@@ -4321,8 +6503,23 @@
       <c r="U58" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="V58" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="59" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>806</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E59" t="s">
+        <v>976</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1006</v>
+      </c>
       <c r="H59" t="s">
         <v>404</v>
       </c>
@@ -4362,8 +6559,23 @@
       <c r="U59" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="V59" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="60" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>807</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E60" t="s">
+        <v>977</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1007</v>
+      </c>
       <c r="H60" t="s">
         <v>405</v>
       </c>
@@ -4403,8 +6615,23 @@
       <c r="U60" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="V60" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="61" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>808</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E61" t="s">
+        <v>978</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1008</v>
+      </c>
       <c r="H61" t="s">
         <v>406</v>
       </c>
@@ -4444,8 +6671,23 @@
       <c r="U61" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="V61" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="62" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>809</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E62" t="s">
+        <v>979</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1009</v>
+      </c>
       <c r="H62" t="s">
         <v>407</v>
       </c>
@@ -4485,8 +6727,23 @@
       <c r="U62" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="V62" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="63" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>810</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E63" t="s">
+        <v>980</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1010</v>
+      </c>
       <c r="H63" t="s">
         <v>408</v>
       </c>
@@ -4526,8 +6783,23 @@
       <c r="U63" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="V63" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="64" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>811</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E64" t="s">
+        <v>981</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1011</v>
+      </c>
       <c r="H64" t="s">
         <v>409</v>
       </c>
@@ -4567,8 +6839,23 @@
       <c r="U64" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="65" spans="8:21" x14ac:dyDescent="0.35">
+      <c r="V64" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>812</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E65" t="s">
+        <v>982</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1012</v>
+      </c>
       <c r="H65" t="s">
         <v>410</v>
       </c>
@@ -4608,8 +6895,23 @@
       <c r="U65" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="66" spans="8:21" x14ac:dyDescent="0.35">
+      <c r="V65" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>813</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E66" t="s">
+        <v>983</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1013</v>
+      </c>
       <c r="H66" t="s">
         <v>411</v>
       </c>
@@ -4649,8 +6951,23 @@
       <c r="U66" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="67" spans="8:21" x14ac:dyDescent="0.35">
+      <c r="V66" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>814</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E67" t="s">
+        <v>984</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1014</v>
+      </c>
       <c r="H67" t="s">
         <v>412</v>
       </c>
@@ -4690,8 +7007,23 @@
       <c r="U67" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="68" spans="8:21" x14ac:dyDescent="0.35">
+      <c r="V67" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>815</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E68" t="s">
+        <v>985</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1015</v>
+      </c>
       <c r="H68" t="s">
         <v>413</v>
       </c>
@@ -4731,8 +7063,23 @@
       <c r="U68" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="69" spans="8:21" x14ac:dyDescent="0.35">
+      <c r="V68" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>816</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E69" t="s">
+        <v>986</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1016</v>
+      </c>
       <c r="H69" t="s">
         <v>414</v>
       </c>
@@ -4772,8 +7119,23 @@
       <c r="U69" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="70" spans="8:21" x14ac:dyDescent="0.35">
+      <c r="V69" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
+        <v>817</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E70" t="s">
+        <v>987</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1017</v>
+      </c>
       <c r="H70" t="s">
         <v>415</v>
       </c>
@@ -4813,8 +7175,23 @@
       <c r="U70" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="71" spans="8:21" x14ac:dyDescent="0.35">
+      <c r="V70" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
+        <v>818</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E71" t="s">
+        <v>988</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1018</v>
+      </c>
       <c r="J71" t="s">
         <v>436</v>
       </c>
@@ -4851,8 +7228,23 @@
       <c r="U71" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="72" spans="8:21" x14ac:dyDescent="0.35">
+      <c r="V71" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>819</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E72" t="s">
+        <v>989</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1019</v>
+      </c>
       <c r="J72" t="s">
         <v>437</v>
       </c>
@@ -4889,8 +7281,23 @@
       <c r="U72" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="73" spans="8:21" x14ac:dyDescent="0.35">
+      <c r="V72" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
+        <v>820</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E73" t="s">
+        <v>990</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1020</v>
+      </c>
       <c r="J73" t="s">
         <v>438</v>
       </c>
@@ -4927,8 +7334,23 @@
       <c r="U73" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="74" spans="8:21" x14ac:dyDescent="0.35">
+      <c r="V73" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
+        <v>821</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E74" t="s">
+        <v>991</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1021</v>
+      </c>
       <c r="J74" t="s">
         <v>439</v>
       </c>
@@ -4965,8 +7387,23 @@
       <c r="U74" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="75" spans="8:21" x14ac:dyDescent="0.35">
+      <c r="V74" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
+        <v>822</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E75" t="s">
+        <v>992</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1022</v>
+      </c>
       <c r="J75" t="s">
         <v>440</v>
       </c>
@@ -5003,8 +7440,23 @@
       <c r="U75" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="76" spans="8:21" x14ac:dyDescent="0.35">
+      <c r="V75" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B76" t="s">
+        <v>823</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E76" t="s">
+        <v>993</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1023</v>
+      </c>
       <c r="J76" t="s">
         <v>441</v>
       </c>
@@ -5041,8 +7493,23 @@
       <c r="U76" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="77" spans="8:21" x14ac:dyDescent="0.35">
+      <c r="V76" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B77" t="s">
+        <v>824</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E77" t="s">
+        <v>994</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1024</v>
+      </c>
       <c r="J77" t="s">
         <v>442</v>
       </c>
@@ -5079,8 +7546,23 @@
       <c r="U77" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="78" spans="8:21" x14ac:dyDescent="0.35">
+      <c r="V77" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="78" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
+        <v>825</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E78" t="s">
+        <v>995</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1025</v>
+      </c>
       <c r="J78" t="s">
         <v>443</v>
       </c>
@@ -5117,8 +7599,23 @@
       <c r="U78" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="79" spans="8:21" x14ac:dyDescent="0.35">
+      <c r="V78" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B79" t="s">
+        <v>826</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E79" t="s">
+        <v>996</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1026</v>
+      </c>
       <c r="J79" t="s">
         <v>444</v>
       </c>
@@ -5155,8 +7652,23 @@
       <c r="U79" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="80" spans="8:21" x14ac:dyDescent="0.35">
+      <c r="V79" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="80" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
+        <v>827</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E80" t="s">
+        <v>997</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1027</v>
+      </c>
       <c r="J80" t="s">
         <v>445</v>
       </c>
@@ -5192,6 +7704,2113 @@
       </c>
       <c r="U80" t="s">
         <v>775</v>
+      </c>
+      <c r="V80" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
+        <v>828</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E81" t="s">
+        <v>998</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B82" t="s">
+        <v>829</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E82" t="s">
+        <v>999</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
+        <v>830</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1030</v>
+      </c>
+      <c r="L83" t="s">
+        <v>837</v>
+      </c>
+      <c r="M83" t="s">
+        <v>867</v>
+      </c>
+      <c r="N83" t="s">
+        <v>927</v>
+      </c>
+      <c r="P83" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B84" t="s">
+        <v>831</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1031</v>
+      </c>
+      <c r="L84" t="s">
+        <v>838</v>
+      </c>
+      <c r="M84" t="s">
+        <v>868</v>
+      </c>
+      <c r="N84" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B85" t="s">
+        <v>832</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1032</v>
+      </c>
+      <c r="L85" t="s">
+        <v>839</v>
+      </c>
+      <c r="M85" t="s">
+        <v>869</v>
+      </c>
+      <c r="N85" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>833</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1033</v>
+      </c>
+      <c r="L86" t="s">
+        <v>840</v>
+      </c>
+      <c r="M86" t="s">
+        <v>870</v>
+      </c>
+      <c r="N86" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
+        <v>834</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1034</v>
+      </c>
+      <c r="L87" t="s">
+        <v>841</v>
+      </c>
+      <c r="M87" t="s">
+        <v>871</v>
+      </c>
+      <c r="N87" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
+        <v>835</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1035</v>
+      </c>
+      <c r="L88" t="s">
+        <v>842</v>
+      </c>
+      <c r="M88" t="s">
+        <v>872</v>
+      </c>
+      <c r="N88" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="L89" t="s">
+        <v>843</v>
+      </c>
+      <c r="M89" t="s">
+        <v>873</v>
+      </c>
+      <c r="N89" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="L90" t="s">
+        <v>844</v>
+      </c>
+      <c r="M90" t="s">
+        <v>874</v>
+      </c>
+      <c r="N90" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B91" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G91" t="s">
+        <v>1216</v>
+      </c>
+      <c r="L91" t="s">
+        <v>845</v>
+      </c>
+      <c r="M91" t="s">
+        <v>875</v>
+      </c>
+      <c r="N91" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B92" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G92" t="s">
+        <v>1217</v>
+      </c>
+      <c r="L92" t="s">
+        <v>846</v>
+      </c>
+      <c r="M92" t="s">
+        <v>876</v>
+      </c>
+      <c r="N92" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B93" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1218</v>
+      </c>
+      <c r="L93" t="s">
+        <v>847</v>
+      </c>
+      <c r="M93" t="s">
+        <v>877</v>
+      </c>
+      <c r="N93" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B94" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F94" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G94" t="s">
+        <v>1219</v>
+      </c>
+      <c r="L94" t="s">
+        <v>848</v>
+      </c>
+      <c r="M94" t="s">
+        <v>878</v>
+      </c>
+      <c r="N94" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B95" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G95" t="s">
+        <v>1220</v>
+      </c>
+      <c r="L95" t="s">
+        <v>849</v>
+      </c>
+      <c r="M95" t="s">
+        <v>879</v>
+      </c>
+      <c r="N95" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B96" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1221</v>
+      </c>
+      <c r="L96" t="s">
+        <v>850</v>
+      </c>
+      <c r="M96" t="s">
+        <v>880</v>
+      </c>
+      <c r="N96" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B97" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1222</v>
+      </c>
+      <c r="L97" t="s">
+        <v>851</v>
+      </c>
+      <c r="M97" t="s">
+        <v>881</v>
+      </c>
+      <c r="N97" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B98" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G98" t="s">
+        <v>1223</v>
+      </c>
+      <c r="L98" t="s">
+        <v>852</v>
+      </c>
+      <c r="M98" t="s">
+        <v>882</v>
+      </c>
+      <c r="N98" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B99" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G99" t="s">
+        <v>1224</v>
+      </c>
+      <c r="L99" t="s">
+        <v>853</v>
+      </c>
+      <c r="M99" t="s">
+        <v>883</v>
+      </c>
+      <c r="N99" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B100" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1225</v>
+      </c>
+      <c r="L100" t="s">
+        <v>854</v>
+      </c>
+      <c r="M100" t="s">
+        <v>884</v>
+      </c>
+      <c r="N100" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B101" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G101" t="s">
+        <v>1226</v>
+      </c>
+      <c r="L101" t="s">
+        <v>855</v>
+      </c>
+      <c r="M101" t="s">
+        <v>885</v>
+      </c>
+      <c r="N101" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B102" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F102" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G102" t="s">
+        <v>1227</v>
+      </c>
+      <c r="L102" t="s">
+        <v>856</v>
+      </c>
+      <c r="M102" t="s">
+        <v>886</v>
+      </c>
+      <c r="N102" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B103" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F103" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G103" t="s">
+        <v>1228</v>
+      </c>
+      <c r="L103" t="s">
+        <v>857</v>
+      </c>
+      <c r="M103" t="s">
+        <v>887</v>
+      </c>
+      <c r="N103" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B104" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F104" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G104" t="s">
+        <v>1229</v>
+      </c>
+      <c r="L104" t="s">
+        <v>858</v>
+      </c>
+      <c r="M104" t="s">
+        <v>888</v>
+      </c>
+      <c r="N104" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B105" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F105" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G105" t="s">
+        <v>1230</v>
+      </c>
+      <c r="L105" t="s">
+        <v>859</v>
+      </c>
+      <c r="M105" t="s">
+        <v>889</v>
+      </c>
+      <c r="N105" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B106" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F106" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G106" t="s">
+        <v>1231</v>
+      </c>
+      <c r="L106" t="s">
+        <v>860</v>
+      </c>
+      <c r="M106" t="s">
+        <v>890</v>
+      </c>
+      <c r="N106" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B107" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F107" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G107" t="s">
+        <v>1232</v>
+      </c>
+      <c r="L107" t="s">
+        <v>861</v>
+      </c>
+      <c r="M107" t="s">
+        <v>891</v>
+      </c>
+      <c r="N107" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B108" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F108" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G108" t="s">
+        <v>1233</v>
+      </c>
+      <c r="L108" t="s">
+        <v>862</v>
+      </c>
+      <c r="M108" t="s">
+        <v>892</v>
+      </c>
+      <c r="N108" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B109" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F109" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G109" t="s">
+        <v>1234</v>
+      </c>
+      <c r="L109" t="s">
+        <v>863</v>
+      </c>
+      <c r="M109" t="s">
+        <v>893</v>
+      </c>
+      <c r="N109" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B110" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F110" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G110" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L110" t="s">
+        <v>864</v>
+      </c>
+      <c r="M110" t="s">
+        <v>894</v>
+      </c>
+      <c r="N110" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B111" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F111" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G111" t="s">
+        <v>1236</v>
+      </c>
+      <c r="L111" t="s">
+        <v>865</v>
+      </c>
+      <c r="M111" t="s">
+        <v>895</v>
+      </c>
+      <c r="N111" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B112" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F112" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G112" t="s">
+        <v>1237</v>
+      </c>
+      <c r="L112" t="s">
+        <v>866</v>
+      </c>
+      <c r="M112" t="s">
+        <v>896</v>
+      </c>
+      <c r="N112" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B113" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F113" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G113" t="s">
+        <v>1238</v>
+      </c>
+      <c r="M113" t="s">
+        <v>897</v>
+      </c>
+      <c r="N113" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B114" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F114" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G114" t="s">
+        <v>1239</v>
+      </c>
+      <c r="M114" t="s">
+        <v>898</v>
+      </c>
+      <c r="N114" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B115" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F115" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G115" t="s">
+        <v>1240</v>
+      </c>
+      <c r="M115" t="s">
+        <v>899</v>
+      </c>
+      <c r="N115" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B116" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F116" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1241</v>
+      </c>
+      <c r="M116" t="s">
+        <v>900</v>
+      </c>
+      <c r="N116" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B117" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F117" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G117" t="s">
+        <v>1242</v>
+      </c>
+      <c r="M117" t="s">
+        <v>901</v>
+      </c>
+      <c r="N117" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B118" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F118" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G118" t="s">
+        <v>1243</v>
+      </c>
+      <c r="M118" t="s">
+        <v>902</v>
+      </c>
+      <c r="N118" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B119" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F119" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G119" t="s">
+        <v>1244</v>
+      </c>
+      <c r="M119" t="s">
+        <v>903</v>
+      </c>
+      <c r="N119" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B120" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G120" t="s">
+        <v>1245</v>
+      </c>
+      <c r="M120" t="s">
+        <v>904</v>
+      </c>
+      <c r="N120" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M121" t="s">
+        <v>905</v>
+      </c>
+      <c r="N121" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M122" t="s">
+        <v>906</v>
+      </c>
+      <c r="N122" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M123" t="s">
+        <v>907</v>
+      </c>
+      <c r="N123" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M124" t="s">
+        <v>908</v>
+      </c>
+      <c r="N124" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B125" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F125" t="s">
+        <v>1441</v>
+      </c>
+      <c r="M125" t="s">
+        <v>909</v>
+      </c>
+      <c r="N125" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B126" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F126" t="s">
+        <v>1442</v>
+      </c>
+      <c r="M126" t="s">
+        <v>910</v>
+      </c>
+      <c r="N126" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B127" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F127" t="s">
+        <v>1443</v>
+      </c>
+      <c r="M127" t="s">
+        <v>911</v>
+      </c>
+      <c r="N127" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B128" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F128" t="s">
+        <v>1444</v>
+      </c>
+      <c r="M128" t="s">
+        <v>912</v>
+      </c>
+      <c r="N128" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B129" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F129" t="s">
+        <v>1445</v>
+      </c>
+      <c r="M129" t="s">
+        <v>913</v>
+      </c>
+      <c r="N129" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B130" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F130" t="s">
+        <v>1446</v>
+      </c>
+      <c r="M130" t="s">
+        <v>914</v>
+      </c>
+      <c r="N130" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B131" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F131" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M131" t="s">
+        <v>915</v>
+      </c>
+      <c r="N131" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B132" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F132" t="s">
+        <v>1448</v>
+      </c>
+      <c r="M132" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B133" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F133" t="s">
+        <v>1449</v>
+      </c>
+      <c r="M133" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B134" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F134" t="s">
+        <v>1450</v>
+      </c>
+      <c r="M134" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B135" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F135" t="s">
+        <v>1451</v>
+      </c>
+      <c r="M135" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B136" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1452</v>
+      </c>
+      <c r="M136" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B137" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F137" t="s">
+        <v>1453</v>
+      </c>
+      <c r="M137" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B138" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F138" t="s">
+        <v>1454</v>
+      </c>
+      <c r="M138" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B139" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F139" t="s">
+        <v>1455</v>
+      </c>
+      <c r="M139" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B140" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F140" t="s">
+        <v>1456</v>
+      </c>
+      <c r="M140" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B141" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F141" t="s">
+        <v>1457</v>
+      </c>
+      <c r="M141" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B142" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F142" t="s">
+        <v>1458</v>
+      </c>
+      <c r="M142" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B143" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F143" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B144" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F144" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B145" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F145" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B146" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E146" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F146" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B147" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E147" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F147" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B148" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E148" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F148" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B149" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F149" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B150" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F150" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B151" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E151" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F151" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B152" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F152" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B153" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F153" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B154" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F154" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E155" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F155" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E156" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F156" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E157" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F157" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E158" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F158" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E159" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F159" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E160" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F160" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="161" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E161" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F161" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="162" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E162" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F162" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="163" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E163" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F163" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="164" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E164" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F164" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="165" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E165" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F165" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="166" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E166" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F166" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="167" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E167" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F167" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="168" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E168" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F168" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="169" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E169" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F169" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="170" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E170" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F170" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="171" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E171" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F171" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="172" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E172" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F172" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="173" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E173" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F173" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="174" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E174" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F174" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="175" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E175" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F175" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="176" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E176" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F176" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="177" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E177" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F177" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="178" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E178" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F178" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="179" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E179" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F179" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="180" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E180" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="181" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E181" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="182" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E182" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="183" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E183" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="184" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E184" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="185" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E185" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="186" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E186" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="187" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E187" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="188" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E188" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="189" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E189" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="190" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E190" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="191" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E191" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="192" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E192" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="193" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E193" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="194" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E194" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="195" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E195" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="196" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E196" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="197" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E197" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="198" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E198" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="199" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E199" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="200" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E200" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="201" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E201" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="202" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E202" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="203" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E203" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="204" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E204" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="205" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E205" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="206" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E206" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="207" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E207" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="208" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E208" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="209" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E209" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="210" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E210" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="211" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E211" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="212" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E212" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="213" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E213" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="214" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E214" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="215" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E215" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="216" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E216" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="217" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E217" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="218" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E218" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="219" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E219" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="220" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E220" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="221" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E221" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="222" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E222" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="223" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E223" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="224" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E224" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="225" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E225" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="226" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E226" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="227" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E227" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="228" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E228" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="229" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E229" t="s">
+        <v>1440</v>
       </c>
     </row>
   </sheetData>

--- a/nom_fichiers.xlsx
+++ b/nom_fichiers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\PRI\enregistrements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEE4ABD-4EA9-46EB-B1CC-7A0602E2A832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A82C01-A8FB-4327-85BF-7F83059067BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="1496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="1541">
   <si>
     <t>test_FxFy_perlite_1</t>
   </si>
@@ -4513,6 +4513,141 @@
   </si>
   <si>
     <t>benchmarks_perlite8_55</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_1</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_2</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_3</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_4</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_5</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_6</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_7</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_8</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_9</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_10</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_11</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_12</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_13</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_14</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_15</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_16</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_17</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_18</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_19</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_20</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_21</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_22</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_23</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_24</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_25</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_26</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_27</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_28</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_29</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_30</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_31</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_32</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_33</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_34</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_35</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_36</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_37</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_38</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_39</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_40</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_41</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_42</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_43</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_44</t>
+  </si>
+  <si>
+    <t>benchmarks_perlite9_45</t>
   </si>
 </sst>
 </file>
@@ -4838,8 +4973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:V229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I112" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G125" sqref="G125"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J130" sqref="J130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8794,6 +8929,9 @@
       <c r="F125" t="s">
         <v>1441</v>
       </c>
+      <c r="G125" t="s">
+        <v>1496</v>
+      </c>
       <c r="M125" t="s">
         <v>909</v>
       </c>
@@ -8817,6 +8955,9 @@
       <c r="F126" t="s">
         <v>1442</v>
       </c>
+      <c r="G126" t="s">
+        <v>1497</v>
+      </c>
       <c r="M126" t="s">
         <v>910</v>
       </c>
@@ -8840,6 +8981,9 @@
       <c r="F127" t="s">
         <v>1443</v>
       </c>
+      <c r="G127" t="s">
+        <v>1498</v>
+      </c>
       <c r="M127" t="s">
         <v>911</v>
       </c>
@@ -8863,6 +9007,9 @@
       <c r="F128" t="s">
         <v>1444</v>
       </c>
+      <c r="G128" t="s">
+        <v>1499</v>
+      </c>
       <c r="M128" t="s">
         <v>912</v>
       </c>
@@ -8886,6 +9033,9 @@
       <c r="F129" t="s">
         <v>1445</v>
       </c>
+      <c r="G129" t="s">
+        <v>1500</v>
+      </c>
       <c r="M129" t="s">
         <v>913</v>
       </c>
@@ -8909,6 +9059,9 @@
       <c r="F130" t="s">
         <v>1446</v>
       </c>
+      <c r="G130" t="s">
+        <v>1501</v>
+      </c>
       <c r="M130" t="s">
         <v>914</v>
       </c>
@@ -8932,6 +9085,9 @@
       <c r="F131" t="s">
         <v>1447</v>
       </c>
+      <c r="G131" t="s">
+        <v>1502</v>
+      </c>
       <c r="M131" t="s">
         <v>915</v>
       </c>
@@ -8955,6 +9111,9 @@
       <c r="F132" t="s">
         <v>1448</v>
       </c>
+      <c r="G132" t="s">
+        <v>1503</v>
+      </c>
       <c r="M132" t="s">
         <v>916</v>
       </c>
@@ -8975,6 +9134,9 @@
       <c r="F133" t="s">
         <v>1449</v>
       </c>
+      <c r="G133" t="s">
+        <v>1504</v>
+      </c>
       <c r="M133" t="s">
         <v>917</v>
       </c>
@@ -8995,6 +9157,9 @@
       <c r="F134" t="s">
         <v>1450</v>
       </c>
+      <c r="G134" t="s">
+        <v>1505</v>
+      </c>
       <c r="M134" t="s">
         <v>918</v>
       </c>
@@ -9015,6 +9180,9 @@
       <c r="F135" t="s">
         <v>1451</v>
       </c>
+      <c r="G135" t="s">
+        <v>1506</v>
+      </c>
       <c r="M135" t="s">
         <v>919</v>
       </c>
@@ -9035,6 +9203,9 @@
       <c r="F136" t="s">
         <v>1452</v>
       </c>
+      <c r="G136" t="s">
+        <v>1507</v>
+      </c>
       <c r="M136" t="s">
         <v>920</v>
       </c>
@@ -9055,6 +9226,9 @@
       <c r="F137" t="s">
         <v>1453</v>
       </c>
+      <c r="G137" t="s">
+        <v>1508</v>
+      </c>
       <c r="M137" t="s">
         <v>921</v>
       </c>
@@ -9075,6 +9249,9 @@
       <c r="F138" t="s">
         <v>1454</v>
       </c>
+      <c r="G138" t="s">
+        <v>1509</v>
+      </c>
       <c r="M138" t="s">
         <v>922</v>
       </c>
@@ -9095,6 +9272,9 @@
       <c r="F139" t="s">
         <v>1455</v>
       </c>
+      <c r="G139" t="s">
+        <v>1510</v>
+      </c>
       <c r="M139" t="s">
         <v>923</v>
       </c>
@@ -9115,6 +9295,9 @@
       <c r="F140" t="s">
         <v>1456</v>
       </c>
+      <c r="G140" t="s">
+        <v>1511</v>
+      </c>
       <c r="M140" t="s">
         <v>924</v>
       </c>
@@ -9135,6 +9318,9 @@
       <c r="F141" t="s">
         <v>1457</v>
       </c>
+      <c r="G141" t="s">
+        <v>1512</v>
+      </c>
       <c r="M141" t="s">
         <v>925</v>
       </c>
@@ -9155,6 +9341,9 @@
       <c r="F142" t="s">
         <v>1458</v>
       </c>
+      <c r="G142" t="s">
+        <v>1513</v>
+      </c>
       <c r="M142" t="s">
         <v>926</v>
       </c>
@@ -9175,6 +9364,9 @@
       <c r="F143" t="s">
         <v>1459</v>
       </c>
+      <c r="G143" t="s">
+        <v>1514</v>
+      </c>
     </row>
     <row r="144" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
@@ -9192,8 +9384,11 @@
       <c r="F144" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G144" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
         <v>1269</v>
       </c>
@@ -9209,8 +9404,11 @@
       <c r="F145" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G145" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
         <v>1270</v>
       </c>
@@ -9226,8 +9424,11 @@
       <c r="F146" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G146" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
         <v>1271</v>
       </c>
@@ -9243,8 +9444,11 @@
       <c r="F147" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G147" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
         <v>1272</v>
       </c>
@@ -9260,8 +9464,11 @@
       <c r="F148" t="s">
         <v>1464</v>
       </c>
-    </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G148" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
         <v>1273</v>
       </c>
@@ -9277,8 +9484,11 @@
       <c r="F149" t="s">
         <v>1465</v>
       </c>
-    </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G149" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
         <v>1274</v>
       </c>
@@ -9294,8 +9504,11 @@
       <c r="F150" t="s">
         <v>1466</v>
       </c>
-    </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G150" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
         <v>1275</v>
       </c>
@@ -9311,8 +9524,11 @@
       <c r="F151" t="s">
         <v>1467</v>
       </c>
-    </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G151" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>1276</v>
       </c>
@@ -9328,8 +9544,11 @@
       <c r="F152" t="s">
         <v>1468</v>
       </c>
-    </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G152" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
         <v>1277</v>
       </c>
@@ -9345,8 +9564,11 @@
       <c r="F153" t="s">
         <v>1469</v>
       </c>
-    </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G153" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
         <v>1278</v>
       </c>
@@ -9362,128 +9584,176 @@
       <c r="F154" t="s">
         <v>1470</v>
       </c>
-    </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G154" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E155" t="s">
         <v>1366</v>
       </c>
       <c r="F155" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G155" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E156" t="s">
         <v>1367</v>
       </c>
       <c r="F156" t="s">
         <v>1472</v>
       </c>
-    </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G156" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E157" t="s">
         <v>1368</v>
       </c>
       <c r="F157" t="s">
         <v>1473</v>
       </c>
-    </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G157" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E158" t="s">
         <v>1369</v>
       </c>
       <c r="F158" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G158" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E159" t="s">
         <v>1370</v>
       </c>
       <c r="F159" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G159" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E160" t="s">
         <v>1371</v>
       </c>
       <c r="F160" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="161" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="G160" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="161" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E161" t="s">
         <v>1372</v>
       </c>
       <c r="F161" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="162" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="G161" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="162" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E162" t="s">
         <v>1373</v>
       </c>
       <c r="F162" t="s">
         <v>1478</v>
       </c>
-    </row>
-    <row r="163" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="G162" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="163" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E163" t="s">
         <v>1374</v>
       </c>
       <c r="F163" t="s">
         <v>1479</v>
       </c>
-    </row>
-    <row r="164" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="G163" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="164" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E164" t="s">
         <v>1375</v>
       </c>
       <c r="F164" t="s">
         <v>1480</v>
       </c>
-    </row>
-    <row r="165" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="G164" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="165" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E165" t="s">
         <v>1376</v>
       </c>
       <c r="F165" t="s">
         <v>1481</v>
       </c>
-    </row>
-    <row r="166" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="G165" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="166" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E166" t="s">
         <v>1377</v>
       </c>
       <c r="F166" t="s">
         <v>1482</v>
       </c>
-    </row>
-    <row r="167" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="G166" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="167" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E167" t="s">
         <v>1378</v>
       </c>
       <c r="F167" t="s">
         <v>1483</v>
       </c>
-    </row>
-    <row r="168" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="G167" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="168" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E168" t="s">
         <v>1379</v>
       </c>
       <c r="F168" t="s">
         <v>1484</v>
       </c>
-    </row>
-    <row r="169" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="G168" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="169" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E169" t="s">
         <v>1380</v>
       </c>
       <c r="F169" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="170" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="G169" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="170" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E170" t="s">
         <v>1381</v>
       </c>
@@ -9491,7 +9761,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="171" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E171" t="s">
         <v>1382</v>
       </c>
@@ -9499,7 +9769,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="172" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E172" t="s">
         <v>1383</v>
       </c>
@@ -9507,7 +9777,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="173" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E173" t="s">
         <v>1384</v>
       </c>
@@ -9515,7 +9785,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="174" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E174" t="s">
         <v>1385</v>
       </c>
@@ -9523,7 +9793,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="175" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E175" t="s">
         <v>1386</v>
       </c>
@@ -9531,7 +9801,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="176" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E176" t="s">
         <v>1387</v>
       </c>
